--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -319,83 +319,107 @@
     <t>Проверка функции удаления новости</t>
   </si>
   <si>
-    <t xml:space="preserve">да
+    <t>3. Нажать на иконку удаления около новости</t>
+  </si>
+  <si>
+    <t>3. Отображается окно с возможностью отменить удаление и подтвердить удаление</t>
+  </si>
+  <si>
+    <t>4. Нажать "ok"</t>
+  </si>
+  <si>
+    <t>4. Новость пропала из списка новостей</t>
+  </si>
+  <si>
+    <t>Добавление новой новости без выбора даты и времени</t>
+  </si>
+  <si>
+    <t>Проверка возможности создания новой новости с невалидными данными</t>
+  </si>
+  <si>
+    <t>3. Открылась форма для заполнения данных новости</t>
+  </si>
+  <si>
+    <t>5. В поле "Description" ввести описание новости</t>
+  </si>
+  <si>
+    <t>5. В поле "Description" отображается введенное описание</t>
+  </si>
+  <si>
+    <t>6. Нажать "Save"</t>
+  </si>
+  <si>
+    <t>6. Появляется уведомление "Заполните пустые поля"</t>
+  </si>
+  <si>
+    <t>Разворачивание цитаты</t>
+  </si>
+  <si>
+    <t>Пороверка функциональности просмотра цитат</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку Бабочка на верхней панели приложения</t>
+  </si>
+  <si>
+    <t>1. Открылась страница со списком тематических цитат</t>
+  </si>
+  <si>
+    <t>2. Нажать кнопку развернуть рядом с цитатой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Цитата отображается в развернутом виде с подробным текстом </t>
+  </si>
+  <si>
+    <t>Переход по ссылке /privacy-policy для просмотра политики конфиденциальности</t>
+  </si>
+  <si>
+    <t>Проверка функции перехода на внешнюю страницу</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Меню" в верхнем левом углу и выбрать в выпадающем списке пункт "About"</t>
+  </si>
+  <si>
+    <t>1. Появляется окно с информацией о версии приложения и ссылками на просмотр политики конфиденциальности и условий использования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Нажать на ссылку "Privacy policy" </t>
+  </si>
+  <si>
+    <t>2. Открылся браузер и страница с информацией</t>
+  </si>
+  <si>
+    <t>Переход по ссылке /terms-of-use для просмотра условий использования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Нажать на ссылку "Terms of us" </t>
+  </si>
+  <si>
+    <t>Создание новости с пустыми полями</t>
+  </si>
+  <si>
+    <t>Проверка возможности создания новой новости с пустыми полями</t>
+  </si>
+  <si>
+    <t>4. Нажать "Save"</t>
+  </si>
+  <si>
+    <t>4. Новость не создана, незаполненные поля подсвечены</t>
+  </si>
+  <si>
+    <t>Создание новости с невалидными данными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка возможности создания новой новости с невалидными данными
 </t>
   </si>
   <si>
-    <t>3. Нажать на иконку удаления около новости</t>
-  </si>
-  <si>
-    <t>3. Отображается окно с возможностью отменить удаление и подтвердить удаление</t>
-  </si>
-  <si>
-    <t>4. Нажать "ok"</t>
-  </si>
-  <si>
-    <t>4. Новость пропала из списка новостей</t>
-  </si>
-  <si>
-    <t>Добавление новой новости без выбора даты и времени</t>
-  </si>
-  <si>
-    <t>Проверка возможности создания новой новости с невалидными данными</t>
-  </si>
-  <si>
-    <t>3. Открылась форма для заполнения данных новости</t>
-  </si>
-  <si>
-    <t>5. В поле "Description" ввести описание новости</t>
-  </si>
-  <si>
-    <t>5. В поле "Description" отображается введенное описание</t>
-  </si>
-  <si>
-    <t>6. Нажать "Save"</t>
-  </si>
-  <si>
-    <t>6. Появляется уведомление "Заполните пустые поля"</t>
-  </si>
-  <si>
-    <t>Разворачивание цитаты</t>
-  </si>
-  <si>
-    <t>Пороверка функциональности просмотра цитат</t>
-  </si>
-  <si>
-    <t>1. Нажать кнопку Бабочка на верхней панели приложения</t>
-  </si>
-  <si>
-    <t>1. Открылась страница со списком тематических цитат</t>
-  </si>
-  <si>
-    <t>2. Нажать кнопку развернуть рядом с цитатой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Цитата отображается в развернутом виде с подробным текстом </t>
-  </si>
-  <si>
-    <t>Переход по ссылке /privacy-policy для просмотра политики конфиденциальности</t>
-  </si>
-  <si>
-    <t>Проверка функции перехода на внешнюю страницу</t>
-  </si>
-  <si>
-    <t>1. Нажать на кнопку "Меню" в верхнем левом углу и выбрать в выпадающем списке пункт "About"</t>
-  </si>
-  <si>
-    <t>1. Появляется окно с информацией о версии приложения и ссылками на просмотр политики конфиденциальности и условий использования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Нажать на ссылку "Privacy policy" </t>
-  </si>
-  <si>
-    <t>2. Открылся браузер и страница с информацией</t>
-  </si>
-  <si>
-    <t>Переход по ссылке /terms-of-use для просмотра условий использования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Нажать на ссылку "Terms of us" </t>
+    <t>4. В поле "Category" ввести данные, отличающиеся от выпаадающего списка. Заполнить все остальные поля корректными данными</t>
+  </si>
+  <si>
+    <t>4. Все поля заполнены</t>
+  </si>
+  <si>
+    <t>5. Новость не создана, появилось уведомление, что новость не удалось сохранить</t>
   </si>
 </sst>
 </file>
@@ -420,7 +444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -432,7 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -872,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -961,10 +985,142 @@
     <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -975,129 +1131,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,21 +1434,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="70" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="71" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="72" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="73" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="72" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="71" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="74" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="73" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="74" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="74" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="75" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="76" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="77" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="76" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="75" width="124.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="78" width="39.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="75" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="78" width="31.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="75" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="75" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
@@ -1480,7 +1513,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
@@ -1497,7 +1530,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -1560,7 +1593,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -1577,7 +1610,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -1628,7 +1661,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -1674,7 +1707,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -1691,7 +1724,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -1708,7 +1741,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="64.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -1725,7 +1758,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="29.25" customFormat="1" s="1">
       <c r="A16" s="11">
         <v>4</v>
       </c>
@@ -1754,7 +1787,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -2297,7 +2330,7 @@
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="25" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -2457,7 +2490,7 @@
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="25" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
@@ -2583,7 +2616,7 @@
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="45" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
@@ -2612,10 +2645,10 @@
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="H60" s="47"/>
       <c r="I60" s="48"/>
@@ -2629,10 +2662,10 @@
       <c r="D61" s="38"/>
       <c r="E61" s="38"/>
       <c r="F61" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G61" s="39" t="s">
         <v>103</v>
-      </c>
-      <c r="G61" s="39" t="s">
-        <v>104</v>
       </c>
       <c r="H61" s="50"/>
       <c r="I61" s="51"/>
@@ -2644,10 +2677,10 @@
         <v>15</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>69</v>
@@ -2695,7 +2728,7 @@
         <v>55</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="46"/>
@@ -2726,10 +2759,10 @@
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
       <c r="F66" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="46"/>
@@ -2743,10 +2776,10 @@
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="53"/>
@@ -2758,22 +2791,22 @@
         <v>16</v>
       </c>
       <c r="B68" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="D68" s="13" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F68" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="15" t="s">
@@ -2789,10 +2822,10 @@
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
       <c r="F69" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="20"/>
@@ -2804,10 +2837,10 @@
         <v>17</v>
       </c>
       <c r="B70" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="59" t="s">
         <v>118</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>119</v>
       </c>
       <c r="D70" s="59" t="s">
         <v>38</v>
@@ -2816,10 +2849,10 @@
         <v>50</v>
       </c>
       <c r="F70" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="60" t="s">
@@ -2835,10 +2868,10 @@
       <c r="D71" s="61"/>
       <c r="E71" s="61"/>
       <c r="F71" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="45"/>
@@ -2850,10 +2883,10 @@
         <v>18</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" s="64" t="s">
         <v>38</v>
@@ -2862,10 +2895,10 @@
         <v>50</v>
       </c>
       <c r="F72" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="65" t="s">
@@ -2881,18 +2914,195 @@
       <c r="D73" s="68"/>
       <c r="E73" s="68"/>
       <c r="F73" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="69"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="64.5">
+      <c r="A74" s="62">
+        <v>18</v>
+      </c>
+      <c r="B74" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="25.5">
+      <c r="A75" s="70"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="35"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="70"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="35"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="70"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="35"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="50.25">
+      <c r="A78" s="62">
+        <v>18</v>
+      </c>
+      <c r="B78" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="70"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="35"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="70"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="35"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="70"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="H81" s="35"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="48.75">
+      <c r="A82" s="70"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H82" s="35"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="118">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -2999,6 +3209,18 @@
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
     <mergeCell ref="I72:I73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="I78:I82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
